--- a/Documentation/Design Doc.xlsx
+++ b/Documentation/Design Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeilzenAnthonyDETORR\Documents\GitHub\ProjectPlanning\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E70CD5E-6EE7-4824-84B0-7D41CB4DDAE2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{87C7058E-5C5D-46A6-80E9-AC55F57EC1BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{43F05A35-C57F-4FF3-A1E9-D8B289D5E926}"/>
   </bookViews>
@@ -72,6 +72,197 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FF48F1-616A-4D92-B622-C16F1D335D3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="781050"/>
+          <a:ext cx="666750" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100"/>
+            <a:t>Start</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Flowchart: Predefined Process 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3C2A3E-F573-4C30-93C4-BE2C36CA7E76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="1819275"/>
+          <a:ext cx="2286000" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100"/>
+            <a:t>Load XML config &amp; data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA3AB34-AEE3-451F-A8BE-FB80DB28C451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="2867025"/>
+          <a:ext cx="1076325" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-PH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,11 +565,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>